--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
@@ -534,28 +534,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.08082333333333</v>
+        <v>2.708836333333334</v>
       </c>
       <c r="H2">
-        <v>153.24247</v>
+        <v>8.126509</v>
       </c>
       <c r="I2">
-        <v>0.2638639125382024</v>
+        <v>0.0171826329450544</v>
       </c>
       <c r="J2">
-        <v>0.2638639125382024</v>
+        <v>0.0171826329450544</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>113.4026386666667</v>
+        <v>0.03970866666666666</v>
       </c>
       <c r="N2">
-        <v>340.207916</v>
+        <v>0.119126</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>5792.700151265836</v>
+        <v>0.1075642790148889</v>
       </c>
       <c r="R2">
-        <v>52134.30136139252</v>
+        <v>0.968078511134</v>
       </c>
       <c r="S2">
-        <v>0.2638639125382024</v>
+        <v>0.0171826329450544</v>
       </c>
       <c r="T2">
-        <v>0.2638639125382024</v>
+        <v>0.0171826329450544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>301.220162</v>
       </c>
       <c r="I3">
-        <v>0.5186625514500723</v>
+        <v>0.6368977723762839</v>
       </c>
       <c r="J3">
-        <v>0.5186625514500723</v>
+        <v>0.6368977723762839</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>113.4026386666667</v>
+        <v>0.03970866666666666</v>
       </c>
       <c r="N3">
-        <v>340.207916</v>
+        <v>0.119126</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>11386.38706346693</v>
+        <v>3.987017002045778</v>
       </c>
       <c r="R3">
-        <v>102477.4835712024</v>
+        <v>35.883153018412</v>
       </c>
       <c r="S3">
-        <v>0.5186625514500723</v>
+        <v>0.6368977723762839</v>
       </c>
       <c r="T3">
-        <v>0.5186625514500723</v>
+        <v>0.6368977723762839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.10021433333333</v>
+        <v>54.53410833333334</v>
       </c>
       <c r="H4">
-        <v>126.300643</v>
+        <v>163.602325</v>
       </c>
       <c r="I4">
-        <v>0.2174735360117253</v>
+        <v>0.3459195946786617</v>
       </c>
       <c r="J4">
-        <v>0.2174735360117253</v>
+        <v>0.3459195946786617</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>113.4026386666667</v>
+        <v>0.03970866666666666</v>
       </c>
       <c r="N4">
-        <v>340.207916</v>
+        <v>0.119126</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>4774.275393832221</v>
+        <v>2.165476729772222</v>
       </c>
       <c r="R4">
-        <v>42968.47854448999</v>
+        <v>19.48929056795</v>
       </c>
       <c r="S4">
-        <v>0.2174735360117253</v>
+        <v>0.3459195946786617</v>
       </c>
       <c r="T4">
-        <v>0.2174735360117253</v>
+        <v>0.3459195946786617</v>
       </c>
     </row>
   </sheetData>
